--- a/Kartencodes.xlsx
+++ b/Kartencodes.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="13">
   <si>
     <t>Code</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>Karte</t>
+  </si>
+  <si>
+    <t>Herz</t>
   </si>
 </sst>
 </file>
@@ -59,7 +62,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="000"/>
+    <numFmt numFmtId="164" formatCode="000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -110,7 +113,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -423,7 +426,7 @@
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -488,10 +491,10 @@
       </c>
       <c r="B4" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Dame 7</v>
+        <v>Herz 7</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="H4" s="3">
         <v>7</v>
@@ -552,10 +555,10 @@
       </c>
       <c r="B8" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Dame 8</v>
+        <v>Herz 8</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="H8" s="3">
         <v>8</v>
@@ -616,10 +619,10 @@
       </c>
       <c r="B12" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Dame 9</v>
+        <v>Herz 9</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="H12" s="3">
         <v>9</v>
@@ -680,10 +683,10 @@
       </c>
       <c r="B16" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Dame 10</v>
+        <v>Herz 10</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="H16" s="3">
         <v>10</v>
@@ -744,10 +747,10 @@
       </c>
       <c r="B20" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Dame Bube</v>
+        <v>Herz Bube</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>4</v>
@@ -808,10 +811,10 @@
       </c>
       <c r="B24" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Dame Dame</v>
+        <v>Herz Dame</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>5</v>
@@ -872,10 +875,10 @@
       </c>
       <c r="B28" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Dame König</v>
+        <v>Herz König</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>7</v>
@@ -936,10 +939,10 @@
       </c>
       <c r="B32" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Dame Ass</v>
+        <v>Herz Ass</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>8</v>
